--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -540,12 +540,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -560,6 +554,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -589,7 +589,18 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1766,13 +1777,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:T23">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"缺"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"假"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1794,151 +1805,150 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T41" sqref="T41"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="39" width="4" customWidth="1"/>
-    <col min="40" max="41" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.1640625" customWidth="1"/>
+    <col min="40" max="42" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
+      <c r="S2" s="15"/>
+      <c r="T2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="9" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="9" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="9" t="s">
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="9" t="s">
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="9" t="s">
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="11" t="s">
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2053,9 +2063,9 @@
       <c r="AM3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
@@ -2232,7 +2242,9 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
       <c r="E7" s="7">
         <v>-2</v>
       </c>
@@ -2272,7 +2284,7 @@
       <c r="AM7" s="7"/>
       <c r="AN7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="7">
         <f t="shared" si="1"/>
@@ -2280,7 +2292,7 @@
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2289,7 +2301,9 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2327,7 +2341,7 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="7">
         <f t="shared" si="1"/>
@@ -2335,7 +2349,7 @@
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2401,7 +2415,9 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
       <c r="E10" s="7">
         <v>-1</v>
       </c>
@@ -2441,7 +2457,7 @@
       <c r="AM10" s="7"/>
       <c r="AN10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="7">
         <f t="shared" si="1"/>
@@ -2449,7 +2465,7 @@
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2461,7 +2477,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
         <v>-1</v>
@@ -2502,7 +2518,7 @@
       <c r="AM11" s="7"/>
       <c r="AN11" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO11" s="7">
         <f t="shared" si="1"/>
@@ -2510,7 +2526,7 @@
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -3096,7 +3112,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -3135,7 +3151,7 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="7">
         <f t="shared" si="1"/>
@@ -3143,7 +3159,7 @@
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3263,7 +3279,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
@@ -3287,14 +3302,20 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:AO24">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP4:AP24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -296,12 +296,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注：警告次数达三次，将自动离队。（两次表扬可以抵消一次警告，大家努力攒表扬！）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>累计
 警告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：警告次数达三次，则两周停训整改，若整改期未能将“累计警告”降至3以下，将自动离队。（两次表扬可以抵消一次警告，大家努力攒表扬！）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,6 +552,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,12 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -589,7 +601,7 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -620,6 +632,11 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1016,7 +1033,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1603,8 +1620,12 @@
       <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1663,8 +1684,12 @@
       <c r="B21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1777,14 +1802,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:T23">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"缺"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"假"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="停">
+      <formula>NOT(ISERROR(SEARCH("停",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1805,7 +1833,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1815,140 +1843,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="14" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="14" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="14" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="14" t="s">
+      <c r="W2" s="10"/>
+      <c r="X2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="14" t="s">
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="14" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="14" t="s">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="14" t="s">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="14" t="s">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="9" t="s">
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AP2" s="9" t="s">
-        <v>63</v>
+      <c r="AP2" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2063,9 +2091,9 @@
       <c r="AM3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
@@ -2074,7 +2102,9 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>-2</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2115,11 +2145,11 @@
       </c>
       <c r="AO4" s="7">
         <f>SUM(C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4+Y4+AA4+AC4+AE4+AG4+AI4+AK4+AM4)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP4" s="1">
         <f>(AN4*2+AO4)/2</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2128,7 +2158,9 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
       <c r="E5" s="7">
         <v>-1</v>
       </c>
@@ -2168,7 +2200,7 @@
       <c r="AM5" s="7"/>
       <c r="AN5" s="7">
         <f t="shared" ref="AN5:AN24" si="0">SUM(B5+D5+F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="7">
         <f t="shared" ref="AO5:AO23" si="1">SUM(C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AK5+AM5)</f>
@@ -2176,7 +2208,7 @@
       </c>
       <c r="AP5" s="1">
         <f t="shared" ref="AP5:AP24" si="2">(AN5*2+AO5)/2</f>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2185,9 +2217,11 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
       <c r="E6" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2225,15 +2259,15 @@
       <c r="AM6" s="7"/>
       <c r="AN6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2246,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2288,11 +2322,11 @@
       </c>
       <c r="AO7" s="7">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AP7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -2302,9 +2336,11 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>-1</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2341,15 +2377,15 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2360,7 +2396,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2402,11 +2438,11 @@
       </c>
       <c r="AO9" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2419,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2461,11 +2497,11 @@
       </c>
       <c r="AO10" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2537,7 +2573,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2579,11 +2615,11 @@
       </c>
       <c r="AO12" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -2596,7 +2632,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2638,11 +2674,11 @@
       </c>
       <c r="AO13" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -2652,10 +2688,10 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2693,15 +2729,15 @@
       <c r="AM14" s="7"/>
       <c r="AN14" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -2710,9 +2746,11 @@
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
       <c r="E15" s="7">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2750,11 +2788,11 @@
       <c r="AM15" s="7"/>
       <c r="AN15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="7">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="2"/>
@@ -2769,7 +2807,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -2811,11 +2849,11 @@
       </c>
       <c r="AO16" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -2826,7 +2864,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -2868,11 +2906,11 @@
       </c>
       <c r="AO17" s="7">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -2883,7 +2921,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -2925,11 +2963,11 @@
       </c>
       <c r="AO18" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -2940,7 +2978,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -2982,11 +3020,11 @@
       </c>
       <c r="AO19" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -2998,7 +3036,7 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -3037,7 +3075,7 @@
       <c r="AM20" s="7"/>
       <c r="AN20" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" s="7">
         <f t="shared" si="1"/>
@@ -3045,7 +3083,7 @@
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -3056,7 +3094,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -3098,11 +3136,11 @@
       </c>
       <c r="AO21" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3112,7 +3150,7 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -3151,7 +3189,7 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO22" s="7">
         <f t="shared" si="1"/>
@@ -3159,7 +3197,7 @@
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3169,7 +3207,9 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7">
+        <v>-1</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -3210,11 +3250,11 @@
       </c>
       <c r="AO23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -3223,7 +3263,9 @@
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -3261,7 +3303,7 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" s="7">
         <f>SUM(C24+E24+G24+I24+K24+M24+O24+Q24+S24+U24+W24+Y24+AA24+AC24+AE24+AG24+AI24+AK24+AM24)</f>
@@ -3269,24 +3311,16 @@
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="17">
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -3303,6 +3337,14 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:AO24">

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="580" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2120" yWindow="760" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,19 +301,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>停</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>停</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：警告次数达三次，则两周停训整改，若整改期未能将“累计警告”降至3以下，将自动离队。（两次表扬可以抵消一次警告，大家努力攒表扬！）</t>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：累计警告次数达三次，则两周停训整改，若整改期未能将“累计警告”降至3以下，将自动离队。（两次表扬可以抵消一次警告，大家努力攒表扬！）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,12 +560,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -572,6 +574,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1033,7 +1041,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:T1"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1042,6 +1050,7 @@
     <col min="3" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="7.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28" customHeight="1">
@@ -1140,7 +1149,9 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1160,7 +1171,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="4">
         <f>SUM(B3:T3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17">
@@ -1170,7 +1181,9 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1190,7 +1203,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="4">
         <f t="shared" ref="U4:U23" si="0">SUM(B4:T4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17">
@@ -1200,7 +1213,9 @@
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1220,7 +1235,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17">
@@ -1230,7 +1245,9 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1250,7 +1267,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="17">
@@ -1260,7 +1277,9 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1280,7 +1299,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17">
@@ -1290,7 +1309,9 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1310,7 +1331,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17">
@@ -1320,7 +1341,9 @@
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1350,7 +1373,9 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1370,7 +1395,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17">
@@ -1380,7 +1405,9 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1400,7 +1427,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17">
@@ -1410,8 +1437,12 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1440,7 +1471,9 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1460,7 +1493,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17">
@@ -1470,7 +1503,9 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1500,7 +1535,9 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1520,7 +1557,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17">
@@ -1530,7 +1567,9 @@
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1550,7 +1589,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17">
@@ -1560,7 +1599,9 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1580,7 +1621,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17">
@@ -1590,7 +1631,9 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1610,7 +1653,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="17">
@@ -1621,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1654,7 +1697,9 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1674,7 +1719,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17">
@@ -1685,10 +1730,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1718,7 +1763,9 @@
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1738,7 +1785,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="17">
@@ -1748,7 +1795,9 @@
       <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1768,7 +1817,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="17">
@@ -1833,7 +1882,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="AR26" sqref="AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1843,140 +1892,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="15"/>
+      <c r="P2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
+      <c r="S2" s="15"/>
+      <c r="T2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="9" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="9" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="9" t="s">
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="9" t="s">
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="9" t="s">
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="11" t="s">
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2091,9 +2140,9 @@
       <c r="AM3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
@@ -2106,7 +2155,9 @@
         <v>-2</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>-3</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2145,11 +2196,11 @@
       </c>
       <c r="AO4" s="7">
         <f>SUM(C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4+Y4+AA4+AC4+AE4+AG4+AI4+AK4+AM4)</f>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="AP4" s="1">
         <f>(AN4*2+AO4)/2</f>
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2164,7 +2215,9 @@
       <c r="E5" s="7">
         <v>-1</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2200,7 +2253,7 @@
       <c r="AM5" s="7"/>
       <c r="AN5" s="7">
         <f t="shared" ref="AN5:AN24" si="0">SUM(B5+D5+F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5" s="7">
         <f t="shared" ref="AO5:AO23" si="1">SUM(C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AK5+AM5)</f>
@@ -2208,7 +2261,7 @@
       </c>
       <c r="AP5" s="1">
         <f t="shared" ref="AP5:AP24" si="2">(AN5*2+AO5)/2</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -2224,7 +2277,9 @@
         <v>-2</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>-1</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -2263,11 +2318,11 @@
       </c>
       <c r="AO6" s="7">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2341,8 +2396,12 @@
       <c r="E8" s="7">
         <v>-1</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-1</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -2377,15 +2436,15 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO8" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2399,7 +2458,9 @@
         <v>-3</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>-1</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -2438,11 +2499,11 @@
       </c>
       <c r="AO9" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2458,7 +2519,9 @@
         <v>-3</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>-2</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -2497,11 +2560,11 @@
       </c>
       <c r="AO10" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2519,7 +2582,9 @@
         <v>-1</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>-2</v>
+      </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -2558,11 +2623,11 @@
       </c>
       <c r="AO11" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -2576,7 +2641,9 @@
         <v>-4</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>-2</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -2615,11 +2682,11 @@
       </c>
       <c r="AO12" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -2634,7 +2701,9 @@
       <c r="E13" s="7">
         <v>-3</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2670,7 +2739,7 @@
       <c r="AM13" s="7"/>
       <c r="AN13" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO13" s="7">
         <f t="shared" si="1"/>
@@ -2678,7 +2747,7 @@
       </c>
       <c r="AP13" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -2694,7 +2763,9 @@
         <v>-2</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>-1</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2733,11 +2804,11 @@
       </c>
       <c r="AO14" s="7">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -2752,7 +2823,9 @@
       <c r="E15" s="7">
         <v>-4</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2788,7 +2861,7 @@
       <c r="AM15" s="7"/>
       <c r="AN15" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO15" s="7">
         <f t="shared" si="1"/>
@@ -2796,7 +2869,7 @@
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -2810,7 +2883,9 @@
         <v>-3</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>-1</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -2849,11 +2924,11 @@
       </c>
       <c r="AO16" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -2867,7 +2942,9 @@
         <v>-5</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <v>-3</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -2906,11 +2983,11 @@
       </c>
       <c r="AO17" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -2924,7 +3001,9 @@
         <v>-3</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7">
+        <v>-1</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2963,11 +3042,11 @@
       </c>
       <c r="AO18" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AP18" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -2980,7 +3059,9 @@
       <c r="E19" s="7">
         <v>-3</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -3016,7 +3097,7 @@
       <c r="AM19" s="7"/>
       <c r="AN19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="7">
         <f t="shared" si="1"/>
@@ -3024,7 +3105,7 @@
       </c>
       <c r="AP19" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -3039,7 +3120,9 @@
         <v>2</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>2</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3075,7 +3158,7 @@
       <c r="AM20" s="7"/>
       <c r="AN20" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO20" s="7">
         <f t="shared" si="1"/>
@@ -3083,7 +3166,7 @@
       </c>
       <c r="AP20" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:42">
@@ -3097,7 +3180,9 @@
         <v>-3</v>
       </c>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <v>-1</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -3136,11 +3221,11 @@
       </c>
       <c r="AO21" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3153,8 +3238,12 @@
         <v>3</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>-1</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -3189,15 +3278,15 @@
       <c r="AM22" s="7"/>
       <c r="AN22" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO22" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3211,7 +3300,9 @@
         <v>-1</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>-1</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -3250,11 +3341,11 @@
       </c>
       <c r="AO23" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP23" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:42">
@@ -3267,8 +3358,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>-1</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3303,24 +3398,32 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24" s="7">
         <f>SUM(C24+E24+G24+I24+K24+M24+O24+Q24+S24+U24+W24+Y24+AA24+AC24+AE24+AG24+AI24+AK24+AM24)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP24" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="17">
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -3337,14 +3440,6 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:AO24">

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -560,6 +560,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -574,12 +580,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1882,7 +1882,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR26" sqref="AR26"/>
+      <selection pane="bottomRight" activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1892,140 +1892,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="23">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="14" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="14" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="14" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="14" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="14" t="s">
+      <c r="W2" s="10"/>
+      <c r="X2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="14" t="s">
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="14" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="14" t="s">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="14" t="s">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="14" t="s">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="14" t="s">
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="14" t="s">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="9" t="s">
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2140,9 +2140,9 @@
       <c r="AM3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
     </row>
     <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -2196,11 +2196,11 @@
       </c>
       <c r="AO4" s="7">
         <f>SUM(C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4+Y4+AA4+AC4+AE4+AG4+AI4+AK4+AM4)</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AP4" s="1">
         <f>(AN4*2+AO4)/2</f>
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2318,11 +2318,11 @@
       </c>
       <c r="AO6" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AP6" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2440,11 +2440,11 @@
       </c>
       <c r="AO8" s="7">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2499,11 +2499,11 @@
       </c>
       <c r="AO9" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AP9" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2560,11 +2560,11 @@
       </c>
       <c r="AO10" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AP10" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2623,11 +2623,11 @@
       </c>
       <c r="AO11" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AP11" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2804,11 +2804,11 @@
       </c>
       <c r="AO14" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AP14" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="AO16" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AP16" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="AO17" s="7">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AP17" s="1">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="AO21" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AP21" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="22" spans="1:42">
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -3282,11 +3282,11 @@
       </c>
       <c r="AO22" s="7">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AP22" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:42">
@@ -3416,14 +3416,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -3440,6 +3432,14 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:AO24">

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="760" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2160" yWindow="520" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
     <sheet name="足球队员出勤" sheetId="2" r:id="rId2"/>
     <sheet name="足球队员学习警告" sheetId="3" r:id="rId3"/>
+    <sheet name="训练记录" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,6 +325,86 @@
     <t>注：累计警告次数达三次，则两周停训整改，若整改期未能将“累计警告”降至3以下，将自动离队。（两次表扬可以抵消一次警告，大家努力攒表扬！）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>折返跑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垫球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'15"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'31"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'23"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'39"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'19"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'27"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'50"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'31"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'35"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'39"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'27"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'55"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'37"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>足球队员2017年4月至8月基本功练习情况记录表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -332,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -414,6 +495,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Zapf Dingbats"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -517,7 +605,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -543,8 +631,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,8 +673,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -595,6 +690,8 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -607,9 +704,71 @@
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1041,7 +1200,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1152,7 +1311,9 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1171,7 +1332,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="4">
         <f>SUM(B3:T3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17">
@@ -1184,7 +1345,9 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1216,7 +1379,9 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1235,7 +1400,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17">
@@ -1248,7 +1413,9 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1280,7 +1447,9 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1312,7 +1481,9 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1344,7 +1515,9 @@
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1363,7 +1536,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17">
@@ -1376,7 +1549,9 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1395,7 +1570,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17">
@@ -1408,7 +1583,9 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1427,7 +1604,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17">
@@ -1474,7 +1651,9 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1493,7 +1672,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17">
@@ -1506,7 +1685,9 @@
       <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1525,7 +1706,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17">
@@ -1538,7 +1719,9 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1557,7 +1740,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17">
@@ -1570,7 +1753,9 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1589,7 +1774,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="17">
@@ -1602,7 +1787,9 @@
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1621,7 +1808,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17">
@@ -1634,7 +1821,9 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1653,7 +1842,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="17">
@@ -1700,7 +1889,9 @@
       <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1719,7 +1910,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17">
@@ -1766,7 +1957,9 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1785,7 +1978,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="17">
@@ -1798,7 +1991,9 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1817,7 +2012,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="17">
@@ -1851,16 +2046,16 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:T23">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"缺"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"假"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="停">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="停">
       <formula>NOT(ISERROR(SEARCH("停",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1878,11 +2073,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR1" sqref="AR1"/>
+      <selection pane="bottomRight" sqref="A1:AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2642,7 +2837,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2682,11 +2877,11 @@
       </c>
       <c r="AO12" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AP12" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -2826,7 +3021,9 @@
       <c r="F15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <v>-1</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -2865,11 +3062,11 @@
       </c>
       <c r="AO15" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AP15" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -3443,15 +3640,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B4:AO24">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP4:AP24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3466,4 +3663,1267 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="AD36" sqref="AD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="23">
+      <c r="A1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="10"/>
+      <c r="V2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="10"/>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="520" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2160" yWindow="520" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="90">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -403,6 +403,10 @@
   </si>
   <si>
     <t>整改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +640,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -649,13 +653,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,7 +674,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -708,24 +715,15 @@
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -761,62 +759,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -834,6 +776,11 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1213,28 +1160,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:21" ht="17">
       <c r="A2" s="1" t="s">
@@ -2046,17 +1993,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:T23">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="停">
+      <formula>NOT(ISERROR(SEARCH("停",B3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"缺"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"假"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="停">
-      <formula>NOT(ISERROR(SEARCH("停",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2071,291 +2018,300 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP26"/>
+  <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:AM24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="39" width="4" customWidth="1"/>
-    <col min="40" max="42" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="40" width="4" customWidth="1"/>
+    <col min="41" max="43" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="23">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:43" ht="23">
+      <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-    </row>
-    <row r="2" spans="1:42">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AP2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
-      <c r="A3" s="15"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:43">
+      <c r="A3" s="17"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AF3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AL3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AN3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-    </row>
-    <row r="4" spans="1:42">
-      <c r="A4" s="1" t="s">
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" s="1">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>-2</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>-4</v>
       </c>
-      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7">
+        <v>-2</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -2385,38 +2341,43 @@
       <c r="AK4" s="7"/>
       <c r="AL4" s="7"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="7">
-        <f>SUM(B4+D4+F4+H4+J4+L4+N4+P4+R4+T4+V4+X4+Z4+AB4+AD4+AF4+AH4+AJ4+AL4)</f>
-        <v>0</v>
-      </c>
+      <c r="AN4" s="7"/>
       <c r="AO4" s="7">
         <f>SUM(C4+E4+G4+I4+K4+M4+O4+Q4+S4+U4+W4+Y4+AA4+AC4+AE4+AG4+AI4+AK4+AM4)</f>
-        <v>-6</v>
-      </c>
-      <c r="AP4" s="1">
-        <f>(AN4*2+AO4)/2</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
-      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="7">
+        <f>SUM(D4+F4+H4+J4+L4+N4+P4+R4+T4+V4+X4+Z4+AB4+AD4+AF4+AH4+AJ4+AL4+AN4)</f>
+        <v>-8</v>
+      </c>
+      <c r="AQ4" s="1">
+        <f>(AO4*2+AP4)/2</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
         <v>-1</v>
       </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>-1</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2446,38 +2407,43 @@
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
-      <c r="AN5" s="7">
-        <f t="shared" ref="AN5:AN24" si="0">SUM(B5+D5+F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5)</f>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7">
+        <f t="shared" ref="AO5:AO24" si="0">SUM(C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AK5+AM5)</f>
         <v>2</v>
       </c>
-      <c r="AO5" s="7">
-        <f t="shared" ref="AO5:AO23" si="1">SUM(C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AK5+AM5)</f>
-        <v>-1</v>
-      </c>
-      <c r="AP5" s="1">
-        <f t="shared" ref="AP5:AP24" si="2">(AN5*2+AO5)/2</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="1" t="s">
+      <c r="AP5" s="7">
+        <f t="shared" ref="AP5:AP23" si="1">SUM(D5+F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5+AN5)</f>
+        <v>-2</v>
+      </c>
+      <c r="AQ5" s="1">
+        <f t="shared" ref="AQ5:AQ24" si="2">(AO5*2+AP5)/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
         <v>-2</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
         <v>-2</v>
       </c>
-      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>-2</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -2507,36 +2473,41 @@
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
-      <c r="AN6" s="7">
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AP6" s="7">
         <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="AQ6" s="1">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="1">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
         <v>-4</v>
       </c>
-      <c r="AP6" s="1">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-4</v>
-      </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="7">
+        <v>-1</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2566,40 +2537,45 @@
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
-      <c r="AN7" s="7">
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO7" s="7">
+      <c r="AP7" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="AP7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AQ7" s="1">
         <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-2</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
         <v>-1</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>-2</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -2629,36 +2605,41 @@
       <c r="AK8" s="7"/>
       <c r="AL8" s="7"/>
       <c r="AM8" s="7"/>
-      <c r="AN8" s="7">
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AP8" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="AP8" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AQ8" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7">
         <v>-3</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
         <v>-2</v>
       </c>
-      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <v>-1</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -2688,38 +2669,43 @@
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
-      <c r="AN9" s="7">
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="7">
+      <c r="AP9" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="AP9" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AQ9" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="1" t="s">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
         <v>-3</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
         <v>-3</v>
       </c>
-      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>-2</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2749,40 +2735,45 @@
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
-      <c r="AN10" s="7">
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO10" s="7">
+      <c r="AP10" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
-      </c>
-      <c r="AP10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AQ10" s="1">
         <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <v>-3</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
         <v>-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>-3</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2812,36 +2803,41 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
-      <c r="AN11" s="7">
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AO11" s="7">
+      <c r="AP11" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="AP11" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AQ11" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>-4</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <v>-3</v>
       </c>
-      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <v>-2</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2871,35 +2867,38 @@
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
-      <c r="AN12" s="7">
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="7">
+      <c r="AP12" s="7">
         <f t="shared" si="1"/>
-        <v>-7</v>
-      </c>
-      <c r="AP12" s="1">
+        <v>-9</v>
+      </c>
+      <c r="AQ12" s="1">
         <f t="shared" si="2"/>
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="1" t="s">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
         <v>-3</v>
       </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -2932,38 +2931,43 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
-      <c r="AN13" s="7">
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AO13" s="7">
+      <c r="AP13" s="7">
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="1">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:43">
+      <c r="A14" s="1">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>-2</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
         <v>-2</v>
       </c>
-      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <v>-2</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2993,38 +2997,41 @@
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
-      <c r="AN14" s="7">
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AO14" s="7">
+      <c r="AP14" s="7">
         <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
         <v>-4</v>
       </c>
-      <c r="AP14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>-4</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>-1</v>
       </c>
-      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -3056,36 +3063,41 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="7">
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AO15" s="7">
+      <c r="AP15" s="7">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AQ15" s="1">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:43">
+      <c r="A16" s="1">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>-3</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
         <v>-2</v>
       </c>
-      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="7">
+        <v>-2</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -3115,36 +3127,41 @@
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="7">
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="7">
+      <c r="AP16" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="AP16" s="1">
+        <v>-7</v>
+      </c>
+      <c r="AQ16" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42">
-      <c r="A17" s="1" t="s">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <v>-5</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
         <v>-4</v>
       </c>
-      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="7">
+        <v>-2</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -3174,36 +3191,41 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="7">
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="7">
+      <c r="AP17" s="7">
         <f t="shared" si="1"/>
-        <v>-9</v>
-      </c>
-      <c r="AP17" s="1">
+        <v>-11</v>
+      </c>
+      <c r="AQ17" s="1">
         <f t="shared" si="2"/>
-        <v>-4.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42">
-      <c r="A18" s="1" t="s">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
         <v>-3</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
         <v>-1</v>
       </c>
-      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="7">
+        <v>-2</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -3233,36 +3255,41 @@
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="7">
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="7">
+      <c r="AP18" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="AP18" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AQ18" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42">
-      <c r="A19" s="1" t="s">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
         <v>-3</v>
       </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="7">
+        <v>-2</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -3292,35 +3319,38 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
-      <c r="AN19" s="7">
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AO19" s="7">
+      <c r="AP19" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="AP19" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AQ19" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42">
-      <c r="A20" s="1" t="s">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="7">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>2</v>
       </c>
-      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -3353,36 +3383,41 @@
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
-      <c r="AN20" s="7">
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AO20" s="7">
+      <c r="AP20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AQ20" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:43">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
         <v>-3</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
         <v>-2</v>
       </c>
-      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="7">
+        <v>-2</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -3412,38 +3447,43 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-      <c r="AN21" s="7">
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="7">
+      <c r="AP21" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
-      </c>
-      <c r="AP21" s="1">
+        <v>-7</v>
+      </c>
+      <c r="AQ21" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42">
-      <c r="A22" s="1" t="s">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
         <v>3</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
         <v>-2</v>
       </c>
-      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="7">
+        <v>-1</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -3473,36 +3513,41 @@
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
-      <c r="AN22" s="7">
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AO22" s="7">
+      <c r="AP22" s="7">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="AP22" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AQ22" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42">
-      <c r="A23" s="1" t="s">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
         <v>-1</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
         <v>-1</v>
       </c>
-      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="7">
+        <v>-2</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -3532,38 +3577,43 @@
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
-      <c r="AN23" s="7">
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="7">
+      <c r="AP23" s="7">
         <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="AQ23" s="1">
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="AP23" s="1">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:42">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="7">
+        <v>-2</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -3593,69 +3643,71 @@
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
-      <c r="AN24" s="7">
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AO24" s="7">
-        <f>SUM(C24+E24+G24+I24+K24+M24+O24+Q24+S24+U24+W24+Y24+AA24+AC24+AE24+AG24+AI24+AK24+AM24)</f>
-        <v>-1</v>
-      </c>
-      <c r="AP24" s="1">
+      <c r="AP24" s="7">
+        <f>SUM(D24+F24+H24+J24+L24+N24+P24+R24+T24+V24+X24+Z24+AB24+AD24+AF24+AH24+AJ24+AL24+AN24)</f>
+        <v>-3</v>
+      </c>
+      <c r="AQ24" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" ht="17">
-      <c r="B26" s="2" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" ht="17">
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="B1:AN1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B4:AO24">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="C4:AP24">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP4:AP24">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="AQ4:AQ24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="AN22 AN4" emptyCellReference="1"/>
+    <ignoredError sqref="AO22 AO4" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3669,11 +3721,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD36" sqref="AD36"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3720,243 +3772,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="9" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="9" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="9" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="9" t="s">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="9" t="s">
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="9" t="s">
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="9" t="s">
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="9" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="10"/>
+      <c r="AM2" s="16"/>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="U3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="W3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Y3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AA3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AC3" s="16" t="s">
+      <c r="AC3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AD3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AE3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="16" t="s">
+      <c r="AF3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AG3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AH3" s="16" t="s">
+      <c r="AH3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AI3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AK3" s="16" t="s">
+      <c r="AK3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AL3" s="16" t="s">
+      <c r="AL3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3971,7 +4023,9 @@
       <c r="F4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4233,7 +4287,9 @@
       <c r="F10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>9</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -4503,7 +4559,9 @@
       <c r="F16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="7">
+        <v>4</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -4814,7 +4872,9 @@
       <c r="F23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -4895,16 +4955,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -4916,6 +4966,16 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="520" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-380" yWindow="200" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -2024,7 +2024,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="AP4" s="7">
         <f>SUM(D4+F4+H4+J4+L4+N4+P4+R4+T4+V4+X4+Z4+AB4+AD4+AF4+AH4+AJ4+AL4+AN4)</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AQ4" s="1">
         <f>(AO4*2+AP4)/2</f>
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2374,9 +2374,11 @@
         <v>1</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
       <c r="J5" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -2410,15 +2412,15 @@
       <c r="AN5" s="7"/>
       <c r="AO5" s="7">
         <f t="shared" ref="AO5:AO24" si="0">SUM(C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AK5+AM5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP5" s="7">
         <f t="shared" ref="AP5:AP23" si="1">SUM(D5+F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5+AN5)</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" ref="AQ5:AQ24" si="2">(AO5*2+AP5)/2</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2504,7 +2506,9 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
       <c r="J7" s="7">
         <v>-1</v>
       </c>
@@ -2540,7 +2544,7 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP7" s="7">
         <f t="shared" si="1"/>
@@ -2548,7 +2552,7 @@
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2572,7 +2576,9 @@
       <c r="H8" s="7">
         <v>-2</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
       <c r="J8" s="7">
         <v>-1</v>
       </c>
@@ -2608,7 +2614,7 @@
       <c r="AN8" s="7"/>
       <c r="AO8" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP8" s="7">
         <f t="shared" si="1"/>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2636,7 +2642,9 @@
       <c r="H9" s="7">
         <v>-2</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
       <c r="J9" s="7">
         <v>-1</v>
       </c>
@@ -2672,7 +2680,7 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="7">
         <f t="shared" si="1"/>
@@ -2680,7 +2688,7 @@
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2702,9 +2710,11 @@
       <c r="H10" s="7">
         <v>-3</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2738,15 +2748,15 @@
       <c r="AN10" s="7"/>
       <c r="AO10" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" s="7">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2770,7 +2780,9 @@
       <c r="H11" s="7">
         <v>-3</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
       <c r="J11" s="7">
         <v>-2</v>
       </c>
@@ -2806,7 +2818,7 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP11" s="7">
         <f t="shared" si="1"/>
@@ -2814,7 +2826,7 @@
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2834,9 +2846,11 @@
       <c r="H12" s="7">
         <v>-3</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
       <c r="J12" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2870,15 +2884,15 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="7">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="2"/>
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2900,7 +2914,9 @@
         <v>1</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -2934,7 +2950,7 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP13" s="7">
         <f t="shared" si="1"/>
@@ -2942,7 +2958,7 @@
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2964,9 +2980,11 @@
       <c r="H14" s="7">
         <v>-2</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
       <c r="J14" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -3000,15 +3018,15 @@
       <c r="AN14" s="7"/>
       <c r="AO14" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP14" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -3032,7 +3050,9 @@
       <c r="H15" s="7">
         <v>-1</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -3066,7 +3086,7 @@
       <c r="AN15" s="7"/>
       <c r="AO15" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP15" s="7">
         <f t="shared" si="1"/>
@@ -3074,7 +3094,7 @@
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -3094,7 +3114,9 @@
       <c r="H16" s="7">
         <v>-2</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
       <c r="J16" s="7">
         <v>-2</v>
       </c>
@@ -3130,7 +3152,7 @@
       <c r="AN16" s="7"/>
       <c r="AO16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="7">
         <f t="shared" si="1"/>
@@ -3138,7 +3160,7 @@
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="2"/>
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3158,9 +3180,11 @@
       <c r="H17" s="7">
         <v>-4</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
       <c r="J17" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -3194,15 +3218,15 @@
       <c r="AN17" s="7"/>
       <c r="AO17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="7">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="2"/>
-        <v>-5.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3222,7 +3246,9 @@
       <c r="H18" s="7">
         <v>-1</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
       <c r="J18" s="7">
         <v>-2</v>
       </c>
@@ -3258,7 +3284,7 @@
       <c r="AN18" s="7"/>
       <c r="AO18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="7">
         <f t="shared" si="1"/>
@@ -3266,7 +3292,7 @@
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3286,9 +3312,11 @@
         <v>1</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
       <c r="J19" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -3322,15 +3350,15 @@
       <c r="AN19" s="7"/>
       <c r="AO19" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3352,7 +3380,9 @@
         <v>2</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -3386,7 +3416,7 @@
       <c r="AN20" s="7"/>
       <c r="AO20" s="7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP20" s="7">
         <f t="shared" si="1"/>
@@ -3394,7 +3424,7 @@
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3414,7 +3444,9 @@
       <c r="H21" s="7">
         <v>-2</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
       <c r="J21" s="7">
         <v>-2</v>
       </c>
@@ -3450,7 +3482,7 @@
       <c r="AN21" s="7"/>
       <c r="AO21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="7">
         <f t="shared" si="1"/>
@@ -3458,7 +3490,7 @@
       </c>
       <c r="AQ21" s="1">
         <f t="shared" si="2"/>
-        <v>-3.5</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3480,7 +3512,9 @@
       <c r="H22" s="7">
         <v>-2</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
       <c r="J22" s="7">
         <v>-1</v>
       </c>
@@ -3516,7 +3550,7 @@
       <c r="AN22" s="7"/>
       <c r="AO22" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP22" s="7">
         <f t="shared" si="1"/>
@@ -3524,7 +3558,7 @@
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3544,7 +3578,9 @@
       <c r="H23" s="7">
         <v>-1</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
       <c r="J23" s="7">
         <v>-2</v>
       </c>
@@ -3580,7 +3616,7 @@
       <c r="AN23" s="7"/>
       <c r="AO23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="7">
         <f t="shared" si="1"/>
@@ -3588,7 +3624,7 @@
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3610,9 +3646,11 @@
       <c r="H24" s="7">
         <v>-1</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
       <c r="J24" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3646,15 +3684,15 @@
       <c r="AN24" s="7"/>
       <c r="AO24" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP24" s="7">
         <f>SUM(D24+F24+H24+J24+L24+N24+P24+R24+T24+V24+X24+Z24+AB24+AD24+AF24+AH24+AJ24+AL24+AN24)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="17">
@@ -3725,7 +3763,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4113,7 +4151,9 @@
       <c r="F6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-380" yWindow="200" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -407,6 +407,86 @@
   </si>
   <si>
     <t>学号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'28"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'26"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'16"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'24"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'41"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'31"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'34"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'40"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'15"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'29"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'18"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'27"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'31"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'21"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'20"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -660,6 +740,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,15 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1147,7 +1227,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1261,7 +1341,9 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1295,7 +1377,9 @@
       <c r="D4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1329,7 +1413,9 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1347,7 +1433,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17">
@@ -1363,7 +1449,9 @@
       <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1381,7 +1469,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="17">
@@ -1397,7 +1485,9 @@
       <c r="D7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1415,7 +1505,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17">
@@ -1431,7 +1521,9 @@
       <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1449,7 +1541,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17">
@@ -1465,7 +1557,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1483,7 +1577,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17">
@@ -1499,7 +1593,9 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1517,7 +1613,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="17">
@@ -1533,7 +1629,9 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1551,7 +1649,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="17">
@@ -1567,7 +1665,9 @@
       <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1585,7 +1685,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="17">
@@ -1601,7 +1701,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1619,7 +1721,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="17">
@@ -1635,7 +1737,9 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1653,7 +1757,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="17">
@@ -1669,7 +1773,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1687,7 +1793,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="17">
@@ -1703,7 +1809,9 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1737,7 +1845,9 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1755,7 +1865,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="17">
@@ -1771,7 +1881,9 @@
       <c r="D18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1789,10 +1901,10 @@
       <c r="T18" s="1"/>
       <c r="U18" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17" hidden="1">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -1839,7 +1951,9 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1857,7 +1971,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="17">
@@ -1873,7 +1987,9 @@
       <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1891,7 +2007,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="17">
@@ -1907,7 +2023,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1941,7 +2059,9 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2020,11 +2140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AS3" sqref="AS3"/>
+      <selection pane="bottomRight" activeCell="AR30" sqref="AR30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2035,144 +2155,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="23">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="15" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="15" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="15" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="15" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="15" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="15" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="15" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="15" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2287,9 +2407,9 @@
       <c r="AN3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="1">
@@ -2310,7 +2430,7 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2348,11 +2468,11 @@
       </c>
       <c r="AP4" s="7">
         <f>SUM(D4+F4+H4+J4+L4+N4+P4+R4+T4+V4+X4+Z4+AB4+AD4+AF4+AH4+AJ4+AL4+AN4)</f>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="AQ4" s="1">
         <f>(AO4*2+AP4)/2</f>
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2444,7 +2564,7 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -2482,11 +2602,11 @@
       </c>
       <c r="AP6" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2580,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -2618,11 +2738,11 @@
       </c>
       <c r="AP8" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2646,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -2684,11 +2804,11 @@
       </c>
       <c r="AP9" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2714,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2752,11 +2872,11 @@
       </c>
       <c r="AP10" s="7">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2850,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -2888,11 +3008,11 @@
       </c>
       <c r="AP12" s="7">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2917,7 +3037,9 @@
       <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <v>-1</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -2954,11 +3076,11 @@
       </c>
       <c r="AP13" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2984,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -3022,11 +3144,11 @@
       </c>
       <c r="AP14" s="7">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AQ14" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -3118,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -3156,11 +3278,11 @@
       </c>
       <c r="AP16" s="7">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3184,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -3222,11 +3344,11 @@
       </c>
       <c r="AP17" s="7">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3250,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -3288,11 +3410,11 @@
       </c>
       <c r="AP18" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3361,7 +3483,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" hidden="1">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -3516,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -3554,11 +3676,11 @@
       </c>
       <c r="AP22" s="7">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3582,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3620,11 +3742,11 @@
       </c>
       <c r="AP23" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3650,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -3688,11 +3810,11 @@
       </c>
       <c r="AP24" s="7">
         <f>SUM(D24+F24+H24+J24+L24+N24+P24+R24+T24+V24+X24+Z24+AB24+AD24+AF24+AH24+AJ24+AL24+AN24)</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="17">
@@ -3702,15 +3824,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AQ2:AQ3"/>
     <mergeCell ref="B1:AN1"/>
     <mergeCell ref="B2:B3"/>
@@ -3727,6 +3840,15 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:AP24">
@@ -3759,11 +3881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3810,131 +3932,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="15" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="15" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="15" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="15" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="15" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="16"/>
+      <c r="AM2" s="12"/>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
@@ -4154,8 +4276,12 @@
       <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -4197,8 +4323,12 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -4240,8 +4370,12 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -4283,8 +4417,12 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="7">
+        <v>18</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -4330,8 +4468,12 @@
       <c r="G10" s="7">
         <v>9</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -4375,8 +4517,12 @@
         <v>78</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -4422,8 +4568,12 @@
       <c r="G12" s="7">
         <v>8</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4465,8 +4615,12 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -4510,7 +4664,9 @@
         <v>86</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -4555,8 +4711,12 @@
         <v>74</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -4602,8 +4762,12 @@
       <c r="G16" s="7">
         <v>4</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -4692,8 +4856,12 @@
         <v>84</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -4737,8 +4905,12 @@
         <v>85</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -4825,7 +4997,9 @@
         <v>82</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -4868,8 +5042,12 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -4995,6 +5173,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -5011,11 +5194,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -2140,11 +2140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR30" sqref="AR30"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2501,7 +2501,9 @@
         <v>-2</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>-1</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -2536,11 +2538,11 @@
       </c>
       <c r="AP5" s="7">
         <f t="shared" ref="AP5:AP23" si="1">SUM(D5+F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5+AN5)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" ref="AQ5:AQ24" si="2">(AO5*2+AP5)/2</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2567,7 +2569,9 @@
         <v>-3</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7">
+        <v>-1</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -2602,11 +2606,11 @@
       </c>
       <c r="AP6" s="7">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2633,7 +2637,9 @@
         <v>-1</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="7">
+        <v>-1</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -2668,11 +2674,11 @@
       </c>
       <c r="AP7" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2703,7 +2709,9 @@
         <v>-2</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="7">
+        <v>-1</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2738,11 +2746,11 @@
       </c>
       <c r="AP8" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2973,7 +2981,9 @@
         <v>-4</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7">
+        <v>-1</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -3008,11 +3018,11 @@
       </c>
       <c r="AP12" s="7">
         <f t="shared" si="1"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="2"/>
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -3309,7 +3319,9 @@
         <v>-4</v>
       </c>
       <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="7">
+        <v>-1</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -3344,11 +3356,11 @@
       </c>
       <c r="AP17" s="7">
         <f t="shared" si="1"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="2"/>
-        <v>-5.5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3375,7 +3387,9 @@
         <v>-3</v>
       </c>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="7">
+        <v>-1</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -3410,11 +3424,11 @@
       </c>
       <c r="AP18" s="7">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3775,7 +3789,9 @@
         <v>-4</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="7">
+        <v>-1</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3810,11 +3826,11 @@
       </c>
       <c r="AP24" s="7">
         <f>SUM(D24+F24+H24+J24+L24+N24+P24+R24+T24+V24+X24+Z24+AB24+AD24+AF24+AH24+AJ24+AL24+AN24)</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="17">
@@ -3881,11 +3897,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4667,7 +4683,9 @@
       <c r="H14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="7">
+        <v>2</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="149">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -487,6 +487,162 @@
   </si>
   <si>
     <t>1'20"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'17"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'13"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'14"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'21"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'27"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'25"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'30"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'37"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'38"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'35"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'52"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'32"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'42"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'24"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'28"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'35"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'47"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'26"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'24"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'16"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'20"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'34"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'44"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'29"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'21"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'17"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'12"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'52"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'33"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -740,15 +896,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -762,6 +909,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1221,29 +1377,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
+      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" customWidth="1"/>
-    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="2:22" ht="28" customHeight="1">
+      <c r="B1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1262,91 +1418,95 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
-    </row>
-    <row r="2" spans="1:21" ht="17">
-      <c r="A2" s="1" t="s">
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2" spans="2:22" ht="17">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="17">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:22" ht="17">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1359,28 +1519,28 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="4">
-        <f>SUM(B3:T3)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="17">
-      <c r="A4" s="1" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="4">
+        <f>SUM(C3:U3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="17" hidden="1">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1395,30 +1555,34 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="4">
-        <f t="shared" ref="U4:U23" si="0">SUM(B4:T4)</f>
+      <c r="U4" s="1"/>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V23" si="0">SUM(C4:U4)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="17">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:22" ht="17">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1431,30 +1595,34 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="4">
+      <c r="U5" s="1"/>
+      <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="17">
-      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="17">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1467,30 +1635,34 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="4">
+      <c r="U6" s="1"/>
+      <c r="V6" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="17">
-      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="17">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1503,30 +1675,34 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="4">
+      <c r="U7" s="1"/>
+      <c r="V7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="17">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="2:22" ht="17">
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1539,30 +1715,34 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="4">
+      <c r="U8" s="1"/>
+      <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="17">
-      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="17">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1575,30 +1755,34 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="4">
+      <c r="U9" s="1"/>
+      <c r="V9" s="4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="17">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="17">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1611,30 +1795,34 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="4">
+      <c r="U10" s="1"/>
+      <c r="V10" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="17">
-      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="17">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
       <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1647,30 +1835,34 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="4">
+      <c r="U11" s="1"/>
+      <c r="V11" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="17">
-      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="17">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1683,30 +1875,34 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="4">
+      <c r="U12" s="1"/>
+      <c r="V12" s="4">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="17">
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="17">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1719,30 +1915,34 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="4">
+      <c r="U13" s="1"/>
+      <c r="V13" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="17">
-      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="17">
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1755,30 +1955,34 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="4">
+      <c r="U14" s="1"/>
+      <c r="V14" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="17">
-      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="17">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1791,30 +1995,34 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="4">
+      <c r="U15" s="1"/>
+      <c r="V15" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="17">
-      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="17">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
       <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1827,30 +2035,34 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="4">
+      <c r="U16" s="1"/>
+      <c r="V16" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="17">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="2:22" ht="17">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
       <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
       <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1863,30 +2075,34 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="4">
+      <c r="U17" s="1"/>
+      <c r="V17" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="17">
-      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="17">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1899,28 +2115,34 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="4">
+      <c r="U18" s="1"/>
+      <c r="V18" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="17" hidden="1">
-      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="18" customHeight="1">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1933,30 +2155,34 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="4">
+      <c r="U19" s="1"/>
+      <c r="V19" s="4">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="17">
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="17">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1969,30 +2195,34 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="4">
+      <c r="U20" s="1"/>
+      <c r="V20" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="17">
-      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="17">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2005,30 +2235,34 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="4">
+      <c r="U21" s="1"/>
+      <c r="V21" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="17">
-      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="17">
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2041,30 +2275,34 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="4">
+      <c r="U22" s="1"/>
+      <c r="V22" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="17">
-      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="17">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2077,44 +2315,45 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="4">
+      <c r="U23" s="1"/>
+      <c r="V23" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="17">
-      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="17">
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="B26" t="s">
+    <row r="26" spans="2:22">
+      <c r="C26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="B27" t="s">
+    <row r="27" spans="2:22">
+      <c r="C27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:22">
+      <c r="C28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="B29" t="s">
+    <row r="29" spans="2:22">
+      <c r="C29" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="B1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B3:T23">
+  <conditionalFormatting sqref="C3:U23">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="停">
-      <formula>NOT(ISERROR(SEARCH("停",B3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("停",C3)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"缺"</formula>
@@ -2144,7 +2383,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2155,144 +2394,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="23">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="11" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="11" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="11" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="11" t="s">
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11" t="s">
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="13" t="s">
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AP2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="10"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2407,9 +2646,9 @@
       <c r="AN3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="1">
@@ -2433,7 +2672,9 @@
         <v>-4</v>
       </c>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>-2</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -2468,11 +2709,11 @@
       </c>
       <c r="AP4" s="7">
         <f>SUM(D4+F4+H4+J4+L4+N4+P4+R4+T4+V4+X4+Z4+AB4+AD4+AF4+AH4+AJ4+AL4+AN4)</f>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="AQ4" s="1">
         <f>(AO4*2+AP4)/2</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -2500,11 +2741,15 @@
       <c r="J5" s="7">
         <v>-2</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
       <c r="L5" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="7"/>
+        <v>-2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -2534,15 +2779,15 @@
       <c r="AN5" s="7"/>
       <c r="AO5" s="7">
         <f t="shared" ref="AO5:AO24" si="0">SUM(C5+E5+G5+I5+K5+M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5+AE5+AG5+AI5+AK5+AM5)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP5" s="7">
         <f t="shared" ref="AP5:AP23" si="1">SUM(D5+F5+H5+J5+L5+N5+P5+R5+T5+V5+X5+Z5+AB5+AD5+AF5+AH5+AJ5+AL5+AN5)</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="AQ5" s="1">
         <f t="shared" ref="AQ5:AQ24" si="2">(AO5*2+AP5)/2</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -2568,9 +2813,11 @@
       <c r="J6" s="7">
         <v>-3</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
       <c r="L6" s="7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -2602,15 +2849,15 @@
       <c r="AN6" s="7"/>
       <c r="AO6" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP6" s="7">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="AQ6" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -2638,7 +2885,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -2674,11 +2921,11 @@
       </c>
       <c r="AP7" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AQ7" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2710,7 +2957,7 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -2746,11 +2993,11 @@
       </c>
       <c r="AP8" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AQ8" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2777,8 +3024,12 @@
         <v>-2</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -2808,11 +3059,11 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="7">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="AQ9" s="1">
         <f t="shared" si="2"/>
@@ -2845,7 +3096,9 @@
         <v>-4</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="7">
+        <v>-2</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2880,11 +3133,11 @@
       </c>
       <c r="AP10" s="7">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="AQ10" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2916,7 +3169,9 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -2946,7 +3201,7 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP11" s="7">
         <f t="shared" si="1"/>
@@ -2954,7 +3209,7 @@
       </c>
       <c r="AQ11" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2982,9 +3237,11 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="7"/>
+        <v>-3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -3014,11 +3271,11 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" s="7">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="AQ12" s="1">
         <f t="shared" si="2"/>
@@ -3050,9 +3307,13 @@
       <c r="J13" s="7">
         <v>-1</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -3082,7 +3343,7 @@
       <c r="AN13" s="7"/>
       <c r="AO13" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP13" s="7">
         <f t="shared" si="1"/>
@@ -3090,7 +3351,7 @@
       </c>
       <c r="AQ13" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -3188,7 +3449,9 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -3218,7 +3481,7 @@
       <c r="AN15" s="7"/>
       <c r="AO15" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP15" s="7">
         <f t="shared" si="1"/>
@@ -3226,7 +3489,7 @@
       </c>
       <c r="AQ15" s="1">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -3253,7 +3516,9 @@
         <v>-3</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="7">
+        <v>-2</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3288,11 +3553,11 @@
       </c>
       <c r="AP16" s="7">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="AQ16" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3320,7 +3585,7 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -3356,11 +3621,11 @@
       </c>
       <c r="AP17" s="7">
         <f t="shared" si="1"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="AQ17" s="1">
         <f t="shared" si="2"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -3388,7 +3653,7 @@
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -3424,11 +3689,11 @@
       </c>
       <c r="AP18" s="7">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="AQ18" s="1">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3455,7 +3720,9 @@
         <v>-3</v>
       </c>
       <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="7">
+        <v>-2</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -3490,14 +3757,14 @@
       </c>
       <c r="AP19" s="7">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AQ19" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" hidden="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -3521,8 +3788,12 @@
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="7">
+        <v>-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3552,15 +3823,15 @@
       <c r="AN20" s="7"/>
       <c r="AO20" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP20" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ20" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3655,7 +3926,9 @@
         <v>-2</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="7">
+        <v>-2</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -3690,11 +3963,11 @@
       </c>
       <c r="AP22" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="AQ22" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -3721,8 +3994,12 @@
         <v>-3</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -3752,15 +4029,15 @@
       <c r="AN23" s="7"/>
       <c r="AO23" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP23" s="7">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AQ23" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:43">
@@ -3790,7 +4067,7 @@
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -3826,11 +4103,11 @@
       </c>
       <c r="AP24" s="7">
         <f>SUM(D24+F24+H24+J24+L24+N24+P24+R24+T24+V24+X24+Z24+AB24+AD24+AF24+AH24+AJ24+AL24+AN24)</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AQ24" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="17">
@@ -3840,6 +4117,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AQ2:AQ3"/>
     <mergeCell ref="B1:AN1"/>
     <mergeCell ref="B2:B3"/>
@@ -3856,15 +4142,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:AP24">
@@ -3901,7 +4178,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3948,131 +4225,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="11" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="11" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="11" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="11" t="s">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="11" t="s">
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="11" t="s">
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="11" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="11" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="12"/>
+      <c r="AM2" s="16"/>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="17"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
@@ -4204,10 +4481,18 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="7">
+        <v>6</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -4300,8 +4585,12 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -4347,8 +4636,12 @@
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -4439,10 +4732,18 @@
       <c r="I9" s="7">
         <v>18</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="7">
+        <v>18</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="7">
+        <v>6</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -4490,10 +4791,18 @@
       <c r="I10" s="7">
         <v>5</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="J10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="7">
+        <v>14</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -4539,10 +4848,18 @@
       <c r="I11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -4590,10 +4907,18 @@
       <c r="I12" s="7">
         <v>6</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="7">
+        <v>5</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -4637,9 +4962,15 @@
       <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -4688,8 +5019,12 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="L14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -4735,10 +5070,16 @@
       <c r="I15" s="7">
         <v>3</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4</v>
+      </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="M15" s="7">
+        <v>4</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -4786,10 +5127,18 @@
       <c r="I16" s="7">
         <v>3</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="7">
+        <v>5</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="7">
+        <v>9</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -4880,10 +5229,18 @@
       <c r="I18" s="7">
         <v>1</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -4929,9 +5286,15 @@
       <c r="I19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7">
+        <v>2</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -4972,8 +5335,12 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7">
+        <v>2</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -5019,10 +5386,18 @@
         <v>106</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -5066,8 +5441,12 @@
       <c r="I22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7">
+        <v>2</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -5115,8 +5494,12 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -5158,10 +5541,18 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -5191,11 +5582,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -5212,6 +5598,11 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="18140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="164">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -643,6 +643,66 @@
   </si>
   <si>
     <t>1'33"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'28"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'31"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'20"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'44"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'37"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'35"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'13"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'18"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'27"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'19"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'33"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'40"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'25"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,6 +956,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -909,15 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -1383,7 +1443,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X26" sqref="X26"/>
+      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1507,7 +1567,9 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1522,7 +1584,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="4">
         <f>SUM(C3:U3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="17" hidden="1">
@@ -1583,7 +1645,9 @@
       <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1598,7 +1662,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="17">
@@ -1623,7 +1687,9 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1663,7 +1729,9 @@
       <c r="H7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1678,7 +1746,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="17">
@@ -1703,7 +1771,9 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1718,7 +1788,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="17">
@@ -1743,7 +1813,9 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1758,7 +1830,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="17">
@@ -1783,7 +1855,9 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1798,7 +1872,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="17">
@@ -1823,7 +1897,9 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1838,7 +1914,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="17">
@@ -1863,7 +1939,9 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1878,7 +1956,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="17">
@@ -1903,7 +1981,9 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1918,7 +1998,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="17">
@@ -1943,7 +2023,9 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1958,7 +2040,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="17">
@@ -1983,7 +2065,9 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1998,7 +2082,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="17">
@@ -2023,7 +2107,9 @@
       <c r="H16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2063,7 +2149,9 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2078,7 +2166,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="17">
@@ -2103,7 +2191,9 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2118,10 +2208,10 @@
       <c r="U18" s="1"/>
       <c r="V18" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="18" customHeight="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="18" hidden="1" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2183,7 +2273,9 @@
       <c r="H20" s="1">
         <v>2</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2198,7 +2290,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="17">
@@ -2223,7 +2315,9 @@
       <c r="H21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2238,7 +2332,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="17">
@@ -2263,7 +2357,9 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2278,7 +2374,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="17">
@@ -2303,7 +2399,9 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2318,7 +2416,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:22" ht="17">
@@ -2379,11 +2477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2394,144 +2492,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="23">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="15" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="15" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="15" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="15" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="15" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="15" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="15" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="15" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2646,9 +2744,9 @@
       <c r="AN3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="1">
@@ -2677,8 +2775,12 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -2751,8 +2853,12 @@
         <v>1</v>
       </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -2821,8 +2927,12 @@
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -2889,8 +2999,12 @@
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -2961,8 +3075,12 @@
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -3031,8 +3149,12 @@
         <v>1</v>
       </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -3101,8 +3223,12 @@
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -3173,8 +3299,12 @@
         <v>1</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -3243,8 +3373,12 @@
         <v>1</v>
       </c>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -3315,8 +3449,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -3383,8 +3521,12 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -3453,8 +3595,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -3521,8 +3667,12 @@
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -3589,8 +3739,12 @@
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -3657,8 +3811,12 @@
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -3725,8 +3883,12 @@
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -3795,8 +3957,12 @@
         <v>2</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -3861,8 +4027,12 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -3931,8 +4101,12 @@
       </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -4001,8 +4175,12 @@
         <v>1</v>
       </c>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -4071,8 +4249,12 @@
       </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
@@ -4117,15 +4299,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AQ2:AQ3"/>
     <mergeCell ref="B1:AN1"/>
     <mergeCell ref="B2:B3"/>
@@ -4142,6 +4315,15 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:AP24">
@@ -4174,11 +4356,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4225,131 +4407,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="15" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="15" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="15" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="15" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="15" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="16"/>
+      <c r="AM2" s="12"/>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
@@ -4493,8 +4675,12 @@
       <c r="M4" s="7">
         <v>7</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="7">
+        <v>6</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -4591,8 +4777,12 @@
       <c r="M6" s="7">
         <v>3</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="7">
+        <v>2</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -4689,8 +4879,12 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -4744,8 +4938,12 @@
       <c r="M9" s="7">
         <v>6</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="7">
+        <v>5</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -4803,8 +5001,12 @@
       <c r="M10" s="7">
         <v>14</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="7">
+        <v>7</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -4860,8 +5062,12 @@
       <c r="M11" s="7">
         <v>5</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="7">
+        <v>8</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -4919,8 +5125,12 @@
       <c r="M12" s="7">
         <v>7</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="O12" s="7">
+        <v>5</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -4972,8 +5182,12 @@
         <v>141</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="N13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -5025,8 +5239,12 @@
       <c r="M14" s="7">
         <v>4</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="7">
+        <v>4</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -5080,8 +5298,12 @@
       <c r="M15" s="7">
         <v>4</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" s="7">
+        <v>4</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -5139,8 +5361,12 @@
       <c r="M16" s="7">
         <v>9</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="7">
+        <v>7</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -5241,8 +5467,12 @@
       <c r="M18" s="7">
         <v>2</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" s="7">
+        <v>2</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -5296,8 +5526,12 @@
         <v>135</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="7">
+        <v>2</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -5398,8 +5632,12 @@
       <c r="M21" s="7">
         <v>2</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="7">
+        <v>4</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -5449,8 +5687,12 @@
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="7">
+        <v>3</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -5500,8 +5742,12 @@
       <c r="M23" s="7">
         <v>1</v>
       </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" s="7">
+        <v>1</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -5553,8 +5799,12 @@
       <c r="M24" s="7">
         <v>2</v>
       </c>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="N24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -5582,6 +5832,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -5598,11 +5853,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="18140" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="18140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="182">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -703,6 +703,78 @@
   </si>
   <si>
     <t>1'25"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯泊豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张熙硕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'33"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'35"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'34"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'21"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'27"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'27"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'28"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'16"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'41"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'14"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'29"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'21"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +977,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -956,15 +1034,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -979,8 +1048,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -995,6 +1073,9 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1009,9 +1090,12 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1042,6 +1126,146 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1437,13 +1661,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V29"/>
+  <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1570,7 +1794,9 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1584,7 +1810,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="4">
         <f>SUM(C3:U3)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="17" hidden="1">
@@ -1648,7 +1874,9 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1690,7 +1918,9 @@
       <c r="I6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1704,7 +1934,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="17">
@@ -1732,7 +1962,9 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1746,7 +1978,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="17">
@@ -1774,7 +2006,9 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1788,7 +2022,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="17">
@@ -1816,7 +2050,9 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1830,7 +2066,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="17">
@@ -1858,7 +2094,9 @@
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1872,7 +2110,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="17">
@@ -1900,7 +2138,9 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1942,7 +2182,9 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1956,7 +2198,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="17">
@@ -1984,7 +2226,9 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1998,7 +2242,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="17">
@@ -2026,7 +2270,9 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2040,7 +2286,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="17">
@@ -2068,7 +2314,9 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2082,7 +2330,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="17">
@@ -2110,7 +2358,9 @@
       <c r="I16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2152,7 +2402,9 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2166,7 +2418,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="17">
@@ -2194,7 +2446,9 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2208,7 +2462,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="18" hidden="1" customHeight="1">
@@ -2276,7 +2530,9 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2290,7 +2546,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="17">
@@ -2318,7 +2574,9 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2332,7 +2590,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="17">
@@ -2360,7 +2618,9 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2374,7 +2634,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="17">
@@ -2402,7 +2662,9 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2419,28 +2681,86 @@
         <v>5</v>
       </c>
     </row>
+    <row r="24" spans="2:22" ht="17">
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="4">
+        <f t="shared" ref="V24" si="1">SUM(C24:U24)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="25" spans="2:22" ht="17">
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="4">
+        <f t="shared" ref="V25" si="2">SUM(C25:U25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="17">
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:22">
-      <c r="C26" t="s">
+    <row r="28" spans="2:22">
+      <c r="C28" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22">
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22">
-      <c r="C28" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="C29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="C31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2450,8 +2770,36 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:U23">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="停">
+      <formula>NOT(ISERROR(SEARCH("停",C3)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"缺"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>"假"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:U24">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="停">
+      <formula>NOT(ISERROR(SEARCH("停",C24)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"缺"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"假"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:U25">
     <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="停">
-      <formula>NOT(ISERROR(SEARCH("停",C3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("停",C25)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"缺"</formula>
@@ -2492,144 +2840,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="23">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="11" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="11" t="s">
+      <c r="R2" s="16"/>
+      <c r="S2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="11" t="s">
+      <c r="T2" s="16"/>
+      <c r="U2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="11" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="11" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="11" t="s">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="11" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="11" t="s">
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="11" t="s">
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="11" t="s">
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="11" t="s">
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="13" t="s">
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AP2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="10"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2744,9 +3092,9 @@
       <c r="AN3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="1">
@@ -4299,6 +4647,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AQ2:AQ3"/>
     <mergeCell ref="B1:AN1"/>
     <mergeCell ref="B2:B3"/>
@@ -4315,15 +4672,6 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:AP24">
@@ -4354,13 +4702,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4407,131 +4755,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="11" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="11" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="11" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="11" t="s">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="11" t="s">
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="11" t="s">
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="11" t="s">
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="11" t="s">
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="11" t="s">
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="11" t="s">
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="12"/>
+      <c r="AM2" s="16"/>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="17"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
@@ -4681,7 +5029,9 @@
       <c r="O4" s="7">
         <v>6</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -4885,7 +5235,9 @@
       <c r="O8" s="7">
         <v>1</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -4944,7 +5296,9 @@
       <c r="O9" s="7">
         <v>5</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -5007,7 +5361,9 @@
       <c r="O10" s="7">
         <v>7</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -5068,7 +5424,9 @@
       <c r="O11" s="7">
         <v>8</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -5188,7 +5546,9 @@
       <c r="O13" s="7">
         <v>2</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -5304,7 +5664,9 @@
       <c r="O15" s="7">
         <v>4</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -5367,7 +5729,9 @@
       <c r="O16" s="7">
         <v>7</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -5473,7 +5837,9 @@
       <c r="O18" s="7">
         <v>2</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -5532,7 +5898,9 @@
       <c r="O19" s="7">
         <v>2</v>
       </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -5638,7 +6006,9 @@
       <c r="O21" s="7">
         <v>4</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -5693,7 +6063,9 @@
       <c r="O22" s="7">
         <v>3</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -5748,7 +6120,9 @@
       <c r="O23" s="7">
         <v>1</v>
       </c>
-      <c r="P23" s="7"/>
+      <c r="P23" s="7" t="s">
+        <v>170</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -5830,13 +6204,94 @@
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
     </row>
+    <row r="25" spans="1:39">
+      <c r="A25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -5853,6 +6308,11 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/soccer/福豆足球队统计表格－2017春季学期.xlsx
+++ b/soccer/福豆足球队统计表格－2017春季学期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="18140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="18140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="足球队学习、出勤清单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="183">
   <si>
     <t>队员</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -775,6 +775,10 @@
   </si>
   <si>
     <t>1'21"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1'30"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1034,6 +1038,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,15 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1095,7 +1099,7 @@
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1126,76 +1130,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1663,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2840,144 +2774,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="23">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="15" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="15" t="s">
+      <c r="T2" s="12"/>
+      <c r="U2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="15" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="15" t="s">
+      <c r="X2" s="12"/>
+      <c r="Y2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="15" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="15" t="s">
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="15" t="s">
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="15" t="s">
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="15" t="s">
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AQ2" s="10" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
@@ -3092,9 +3026,9 @@
       <c r="AN3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
     </row>
     <row r="4" spans="1:43">
       <c r="A4" s="1">
@@ -4647,15 +4581,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AQ2:AQ3"/>
     <mergeCell ref="B1:AN1"/>
     <mergeCell ref="B2:B3"/>
@@ -4672,6 +4597,15 @@
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C4:AP24">
@@ -4704,11 +4638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25:P26"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4755,131 +4689,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="1:39">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="15" t="s">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="15" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="12"/>
+      <c r="V2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="15" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="15" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="15" t="s">
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="15" t="s">
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="15" t="s">
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="15" t="s">
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="15" t="s">
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="16"/>
+      <c r="AM2" s="12"/>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>71</v>
       </c>
@@ -5605,7 +5539,9 @@
       <c r="O14" s="7">
         <v>4</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -6292,6 +6228,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A1:AM1"/>
     <mergeCell ref="A2:A3"/>
@@ -6308,11 +6249,6 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
